--- a/download/departamento de informatica/jubilados_sin_descuento_marzo21.xlsx
+++ b/download/departamento de informatica/jubilados_sin_descuento_marzo21.xlsx
@@ -97,9 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +120,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -130,6 +134,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -181,12 +186,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="NOMBRE DE ASOCIADO" dataDxfId="4"/>
-    <tableColumn id="2" name="MES" dataDxfId="3"/>
-    <tableColumn id="3" name="AÑO" dataDxfId="2"/>
+    <tableColumn id="1" name="NOMBRE DE ASOCIADO" dataDxfId="2"/>
+    <tableColumn id="2" name="MES" dataDxfId="1"/>
+    <tableColumn id="3" name="AÑO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,7 +487,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -497,10 +502,10 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -508,10 +513,10 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -519,10 +524,10 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -530,10 +535,10 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -541,10 +546,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -552,10 +557,10 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -563,10 +568,10 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -574,10 +579,10 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -585,10 +590,10 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -596,10 +601,10 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -607,10 +612,10 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <v>2021</v>
       </c>
     </row>
